--- a/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,81; 63,36</t>
+          <t>51,02; 63,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,38; 61,94</t>
+          <t>49,95; 62,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,8; 71,01</t>
+          <t>58,79; 70,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,64; 45,65</t>
+          <t>32,16; 44,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,31; 53,9</t>
+          <t>41,02; 54,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,54; 53,88</t>
+          <t>44,11; 54,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,76; 52,37</t>
+          <t>43,52; 52,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,18; 56,21</t>
+          <t>47,41; 56,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,23; 60,98</t>
+          <t>53,1; 60,84</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,06; 55,45</t>
+          <t>46,16; 55,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,77; 59,16</t>
+          <t>49,8; 59,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,66; 65,15</t>
+          <t>56,44; 65,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,31; 72,32</t>
+          <t>60,94; 71,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,54; 53,13</t>
+          <t>44,55; 53,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,01; 63,58</t>
+          <t>54,75; 63,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,1; 60,48</t>
+          <t>51,68; 60,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,58; 54,76</t>
+          <t>46,38; 55,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,83; 53,2</t>
+          <t>46,56; 53,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,81; 60,17</t>
+          <t>53,64; 60,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,37; 61,38</t>
+          <t>55,32; 61,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,73; 61,84</t>
+          <t>55,05; 62,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,7; 60,46</t>
+          <t>49,38; 60,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,68; 77,29</t>
+          <t>66,84; 76,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,91; 67,56</t>
+          <t>57,58; 67,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,97; 71,75</t>
+          <t>61,07; 72,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,69; 57,61</t>
+          <t>47,03; 57,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,02; 59,47</t>
+          <t>48,32; 59,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,1; 59,06</t>
+          <t>48,22; 58,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,83; 63,17</t>
+          <t>53,34; 62,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,16; 57,29</t>
+          <t>50,17; 57,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,91; 66,41</t>
+          <t>59,11; 66,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,28; 61,7</t>
+          <t>54,29; 61,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,47; 65,81</t>
+          <t>58,32; 65,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,96; 71,59</t>
+          <t>61,57; 71,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,12; 71,17</t>
+          <t>64,02; 71,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,73; 65,35</t>
+          <t>54,76; 65,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,6; 72,12</t>
+          <t>58,49; 72,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,78; 53,68</t>
+          <t>43,6; 53,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,59; 58,02</t>
+          <t>49,48; 57,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,62; 56,93</t>
+          <t>45,88; 56,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,24; 57,47</t>
+          <t>44,54; 57,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,09; 61,12</t>
+          <t>53,8; 61,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,9; 63,46</t>
+          <t>58,09; 63,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,02; 59,76</t>
+          <t>52,0; 60,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,47; 61,69</t>
+          <t>52,46; 61,85</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,47; 71,27</t>
+          <t>57,94; 71,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,87; 69,31</t>
+          <t>55,75; 68,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,85; 65,1</t>
+          <t>52,14; 65,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,57; 60,74</t>
+          <t>47,19; 60,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,88; 58,77</t>
+          <t>44,62; 59,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,27; 54,39</t>
+          <t>40,31; 55,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>61,09; 73,25</t>
+          <t>60,72; 73,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,66; 58,93</t>
+          <t>48,88; 58,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,17; 62,86</t>
+          <t>53,46; 63,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,34; 60,5</t>
+          <t>50,2; 60,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,74; 67,91</t>
+          <t>58,8; 68,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,1; 57,96</t>
+          <t>49,87; 58,07</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,92; 66,64</t>
+          <t>55,04; 67,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,99; 80,44</t>
+          <t>70,16; 80,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,75; 68,16</t>
+          <t>55,86; 67,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,5; 74,56</t>
+          <t>64,24; 74,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,52; 57,81</t>
+          <t>45,83; 57,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,62; 65,93</t>
+          <t>55,02; 67,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,49; 57,54</t>
+          <t>45,29; 57,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,13; 52,21</t>
+          <t>42,21; 52,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,02; 60,48</t>
+          <t>51,84; 60,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,7; 71,72</t>
+          <t>63,62; 71,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>52,0; 60,88</t>
+          <t>52,44; 61,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>54,71; 62,18</t>
+          <t>54,7; 62,31</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>56,32; 64,47</t>
+          <t>56,62; 64,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61,53; 69,41</t>
+          <t>61,4; 68,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>54,04; 62,39</t>
+          <t>54,03; 61,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,68; 64,47</t>
+          <t>55,48; 65,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,52; 52,04</t>
+          <t>44,01; 51,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,15; 59,24</t>
+          <t>51,93; 59,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,24; 46,21</t>
+          <t>38,23; 46,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>46,08; 73,48</t>
+          <t>46,04; 71,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,19; 57,13</t>
+          <t>51,22; 56,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>57,78; 63,32</t>
+          <t>57,53; 63,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>46,8; 52,82</t>
+          <t>47,03; 52,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,54; 67,7</t>
+          <t>51,96; 67,11</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>56,73; 63,73</t>
+          <t>56,52; 64,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>61,07; 68,44</t>
+          <t>61,32; 68,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,36; 67,48</t>
+          <t>60,33; 67,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>55,57; 67,58</t>
+          <t>55,69; 68,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>39,51; 46,82</t>
+          <t>39,94; 46,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,5; 53,57</t>
+          <t>46,5; 53,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,8; 59,07</t>
+          <t>52,04; 59,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51,26; 57,48</t>
+          <t>51,17; 58,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49,05; 54,37</t>
+          <t>49,01; 54,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>54,45; 59,71</t>
+          <t>54,58; 59,96</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>57,05; 62,4</t>
+          <t>57,27; 62,31</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>54,31; 61,85</t>
+          <t>54,33; 61,74</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>57,64; 61,08</t>
+          <t>57,65; 61,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,75; 67,17</t>
+          <t>63,58; 67,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>58,94; 62,47</t>
+          <t>58,98; 62,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>61,01; 65,46</t>
+          <t>61,12; 65,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,59; 48,95</t>
+          <t>45,57; 48,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>52,6; 56,17</t>
+          <t>52,74; 56,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>50,49; 53,87</t>
+          <t>50,49; 54,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>50,9; 58,14</t>
+          <t>51,02; 58,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,57</t>
+          <t>52,04; 54,51</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>58,52; 61,0</t>
+          <t>58,69; 61,13</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>55,19; 57,62</t>
+          <t>55,06; 57,56</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>56,31; 60,1</t>
+          <t>56,24; 60,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,02; 63,64</t>
+          <t>51,64; 63,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,95; 62,16</t>
+          <t>50,25; 62,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,16; 44,75</t>
+          <t>32,93; 44,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,02; 54,15</t>
+          <t>41,82; 53,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,52; 52,77</t>
+          <t>44,23; 52,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,41; 56,51</t>
+          <t>47,99; 56,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,16; 55,58</t>
+          <t>46,37; 55,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,8; 59,06</t>
+          <t>49,5; 59,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,44; 65,61</t>
+          <t>56,25; 65,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,55; 53,85</t>
+          <t>44,35; 53,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,75; 63,59</t>
+          <t>54,72; 63,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,68; 60,77</t>
+          <t>51,59; 60,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,56; 53,05</t>
+          <t>46,74; 53,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,64; 60,16</t>
+          <t>53,67; 60,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,32; 61,6</t>
+          <t>55,13; 61,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,38; 60,33</t>
+          <t>49,31; 60,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,84; 76,92</t>
+          <t>66,51; 77,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,58; 67,68</t>
+          <t>57,12; 67,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,03; 57,83</t>
+          <t>46,44; 57,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,32; 59,41</t>
+          <t>48,26; 59,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,22; 58,91</t>
+          <t>47,62; 58,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50,17; 57,61</t>
+          <t>49,48; 57,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>59,11; 66,32</t>
+          <t>58,73; 66,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,29; 61,78</t>
+          <t>53,82; 61,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,57; 71,31</t>
+          <t>61,52; 71,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,02; 71,58</t>
+          <t>63,48; 71,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,76; 65,21</t>
+          <t>54,69; 65,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,6; 53,87</t>
+          <t>43,6; 53,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,48; 57,77</t>
+          <t>49,41; 57,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,88; 56,8</t>
+          <t>46,11; 56,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,8; 61,18</t>
+          <t>53,77; 60,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,09; 63,84</t>
+          <t>57,84; 63,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,0; 60,02</t>
+          <t>52,04; 59,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,94; 71,17</t>
+          <t>57,54; 71,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,75; 68,8</t>
+          <t>55,79; 68,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,14; 65,96</t>
+          <t>52,01; 65,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,62; 59,44</t>
+          <t>44,64; 58,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,31; 55,36</t>
+          <t>40,63; 54,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,72; 73,65</t>
+          <t>60,91; 73,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,46; 63,25</t>
+          <t>53,16; 63,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,2; 60,16</t>
+          <t>50,58; 60,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,8; 68,04</t>
+          <t>58,84; 67,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>55,04; 67,1</t>
+          <t>54,83; 66,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>70,16; 80,38</t>
+          <t>70,19; 80,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,86; 67,99</t>
+          <t>55,69; 68,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,83; 57,37</t>
+          <t>45,23; 57,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,02; 67,28</t>
+          <t>54,34; 66,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>45,29; 57,42</t>
+          <t>45,17; 57,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,84; 60,73</t>
+          <t>52,13; 60,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,62; 71,69</t>
+          <t>63,69; 71,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>52,44; 61,05</t>
+          <t>52,17; 60,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>56,62; 64,59</t>
+          <t>56,31; 64,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61,4; 68,99</t>
+          <t>62,03; 69,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>54,03; 61,94</t>
+          <t>53,97; 62,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,01; 51,58</t>
+          <t>43,92; 51,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,93; 59,86</t>
+          <t>51,87; 59,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,23; 46,21</t>
+          <t>38,48; 46,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,22; 56,97</t>
+          <t>51,21; 57,06</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>57,53; 63,17</t>
+          <t>57,63; 63,21</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>47,03; 52,89</t>
+          <t>47,26; 52,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>56,52; 64,02</t>
+          <t>56,25; 63,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>61,32; 68,41</t>
+          <t>61,27; 68,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,33; 67,37</t>
+          <t>60,87; 68,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>39,94; 46,82</t>
+          <t>39,91; 47,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,5; 53,6</t>
+          <t>46,62; 54,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>52,04; 59,42</t>
+          <t>51,75; 59,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49,01; 54,0</t>
+          <t>49,21; 54,15</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>54,58; 59,96</t>
+          <t>54,68; 59,71</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>57,27; 62,31</t>
+          <t>57,42; 62,48</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>57,65; 61,12</t>
+          <t>57,41; 60,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,58; 67,09</t>
+          <t>63,86; 67,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>58,98; 62,43</t>
+          <t>58,97; 62,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,57; 48,91</t>
+          <t>45,59; 49,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>52,74; 56,21</t>
+          <t>52,53; 56,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>50,49; 54,04</t>
+          <t>50,52; 54,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,51</t>
+          <t>51,99; 54,41</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>58,69; 61,13</t>
+          <t>58,51; 60,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>55,06; 57,56</t>
+          <t>55,13; 57,62</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,64; 63,72</t>
+          <t>51,81; 63,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,25; 62,37</t>
+          <t>49,38; 61,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,79; 70,95</t>
+          <t>58,8; 71,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,93; 44,82</t>
+          <t>32,64; 45,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,82; 53,82</t>
+          <t>41,31; 53,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,11; 54,15</t>
+          <t>44,54; 53,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,23; 52,99</t>
+          <t>43,76; 52,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,99; 56,75</t>
+          <t>47,18; 56,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,1; 60,84</t>
+          <t>53,23; 60,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,37; 55,48</t>
+          <t>46,06; 55,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,5; 59,07</t>
+          <t>49,77; 59,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,25; 65,22</t>
+          <t>56,66; 65,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,94; 71,61</t>
+          <t>61,31; 72,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,35; 53,11</t>
+          <t>44,54; 53,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,72; 63,59</t>
+          <t>54,01; 63,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,59; 60,12</t>
+          <t>51,1; 60,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,38; 55,07</t>
+          <t>46,58; 54,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,74; 53,12</t>
+          <t>46,83; 53,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,67; 60,08</t>
+          <t>53,81; 60,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,13; 61,25</t>
+          <t>55,37; 61,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>55,05; 62,07</t>
+          <t>54,73; 61,84</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,31; 60,39</t>
+          <t>49,7; 60,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,51; 77,62</t>
+          <t>66,68; 77,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,12; 67,8</t>
+          <t>56,91; 67,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>61,07; 72,74</t>
+          <t>60,97; 71,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,44; 57,51</t>
+          <t>46,69; 57,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,26; 59,18</t>
+          <t>48,02; 59,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,62; 58,74</t>
+          <t>48,1; 59,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,34; 62,89</t>
+          <t>53,83; 63,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,48; 57,62</t>
+          <t>49,16; 57,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,73; 66,48</t>
+          <t>58,91; 66,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>53,82; 61,69</t>
+          <t>54,28; 61,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,32; 65,81</t>
+          <t>58,47; 65,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,52; 71,26</t>
+          <t>61,96; 71,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,48; 71,28</t>
+          <t>64,12; 71,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,69; 65,4</t>
+          <t>54,73; 65,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,49; 72,38</t>
+          <t>57,6; 72,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,6; 53,49</t>
+          <t>43,78; 53,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,41; 57,68</t>
+          <t>49,59; 58,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,11; 56,81</t>
+          <t>45,62; 56,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,54; 57,55</t>
+          <t>45,24; 57,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,77; 60,9</t>
+          <t>54,09; 61,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,84; 63,6</t>
+          <t>57,9; 63,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,04; 59,68</t>
+          <t>52,02; 59,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,46; 61,85</t>
+          <t>52,47; 61,69</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,54; 71,59</t>
+          <t>58,47; 71,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,79; 68,6</t>
+          <t>55,87; 69,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,01; 65,53</t>
+          <t>51,85; 65,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,19; 60,35</t>
+          <t>47,57; 60,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,64; 58,27</t>
+          <t>44,88; 58,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,63; 54,7</t>
+          <t>40,27; 54,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,91; 73,31</t>
+          <t>61,09; 73,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,88; 58,77</t>
+          <t>48,66; 58,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,16; 63,5</t>
+          <t>53,17; 62,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,58; 60,64</t>
+          <t>50,34; 60,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,84; 67,95</t>
+          <t>58,74; 67,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,87; 58,07</t>
+          <t>50,1; 57,96</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,83; 66,62</t>
+          <t>54,92; 66,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>70,19; 80,23</t>
+          <t>69,99; 80,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,69; 68,04</t>
+          <t>55,75; 68,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,24; 74,74</t>
+          <t>63,5; 74,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,23; 57,64</t>
+          <t>45,52; 57,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,34; 66,42</t>
+          <t>54,62; 65,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>45,17; 57,65</t>
+          <t>44,49; 57,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,21; 52,02</t>
+          <t>42,13; 52,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,13; 60,23</t>
+          <t>52,02; 60,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,69; 71,64</t>
+          <t>63,7; 71,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>52,17; 60,69</t>
+          <t>52,0; 60,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>54,7; 62,31</t>
+          <t>54,71; 62,18</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>56,31; 64,19</t>
+          <t>56,32; 64,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62,03; 69,42</t>
+          <t>61,53; 69,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53,97; 62,49</t>
+          <t>54,04; 62,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,48; 65,12</t>
+          <t>55,68; 64,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,92; 51,9</t>
+          <t>43,52; 52,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,87; 59,68</t>
+          <t>51,15; 59,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,48; 46,52</t>
+          <t>38,24; 46,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>46,04; 71,04</t>
+          <t>46,08; 73,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,21; 57,06</t>
+          <t>51,19; 57,13</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>57,63; 63,21</t>
+          <t>57,78; 63,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>47,26; 52,99</t>
+          <t>46,8; 52,82</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,96; 67,11</t>
+          <t>52,54; 67,7</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>56,25; 63,92</t>
+          <t>56,73; 63,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>61,27; 68,28</t>
+          <t>61,07; 68,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,87; 68,12</t>
+          <t>60,36; 67,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>55,69; 68,25</t>
+          <t>55,57; 67,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>39,91; 47,46</t>
+          <t>39,51; 46,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,62; 54,09</t>
+          <t>46,5; 53,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,75; 59,19</t>
+          <t>51,8; 59,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51,17; 58,08</t>
+          <t>51,26; 57,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49,21; 54,15</t>
+          <t>49,05; 54,37</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>54,68; 59,71</t>
+          <t>54,45; 59,71</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>57,42; 62,48</t>
+          <t>57,05; 62,4</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>54,33; 61,74</t>
+          <t>54,31; 61,85</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>57,41; 60,98</t>
+          <t>57,64; 61,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,86; 67,15</t>
+          <t>63,75; 67,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>58,97; 62,49</t>
+          <t>58,94; 62,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>61,12; 65,53</t>
+          <t>61,01; 65,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,59; 49,0</t>
+          <t>45,59; 48,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>52,53; 56,02</t>
+          <t>52,6; 56,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>50,52; 54,09</t>
+          <t>50,49; 53,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>51,02; 58,31</t>
+          <t>50,9; 58,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>51,99; 54,41</t>
+          <t>52,04; 54,57</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>58,51; 60,95</t>
+          <t>58,52; 61,0</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>55,13; 57,62</t>
+          <t>55,19; 57,62</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>56,24; 60,36</t>
+          <t>56,31; 60,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>65,43%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>48,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>56,37%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,05; 70,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,8; 71,01</t>
+          <t>56,18; 70,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,78; 58,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,54; 53,88</t>
+          <t>43,3; 53,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,6; 63,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,23; 60,98</t>
+          <t>51,82; 60,57</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,5%</t>
+          <t>65,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,72%</t>
+          <t>50,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>58,4%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,31; 72,32</t>
+          <t>60,44; 71,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,58; 54,76</t>
+          <t>46,62; 54,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,73; 61,84</t>
+          <t>54,59; 61,95</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>66,48%</t>
+          <t>65,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>58,31%</t>
+          <t>58,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>61,78%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,97; 71,75</t>
+          <t>60,13; 71,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,83; 63,17</t>
+          <t>53,6; 62,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,47; 65,81</t>
+          <t>58,05; 65,5</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,77%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>65,48%</t>
+          <t>66,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>54,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>57,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>60,91%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>57,16%</t>
+          <t>61,26%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,12; 71,17</t>
+          <t>64,81; 75,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,6; 72,12</t>
+          <t>58,34; 72,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,59; 58,02</t>
+          <t>49,24; 60,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,24; 57,47</t>
+          <t>47,19; 77,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,9; 63,46</t>
+          <t>59,04; 66,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,47; 61,69</t>
+          <t>55,07; 72,9</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>54,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>53,77%</t>
+          <t>54,1%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,57; 60,74</t>
+          <t>47,6; 60,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,66; 58,93</t>
+          <t>49,35; 59,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,1; 57,96</t>
+          <t>50,53; 58,24</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69,58%</t>
+          <t>69,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>58,45%</t>
+          <t>58,57%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,5; 74,56</t>
+          <t>63,03; 74,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,13; 52,21</t>
+          <t>42,39; 52,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>54,71; 62,18</t>
+          <t>54,76; 62,3</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>60,18%</t>
+          <t>59,05%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,62%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>57,08%</t>
+          <t>59,71%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,68; 64,47</t>
+          <t>53,93; 63,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>46,08; 73,48</t>
+          <t>46,1; 82,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,54; 67,7</t>
+          <t>52,29; 74,78</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>60,25%</t>
+          <t>69,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>55,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>63,09%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>55,57; 67,58</t>
+          <t>56,68; 85,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51,26; 57,48</t>
+          <t>52,0; 58,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>54,31; 61,85</t>
+          <t>55,7; 77,8</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>52,98%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>59,97%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>61,01; 65,46</t>
+          <t>61,6; 74,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>50,9; 58,14</t>
+          <t>51,48; 63,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>56,31; 60,1</t>
+          <t>57,15; 66,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,81; 63,36</t>
+          <t>52,07; 63,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,05; 70,49</t>
+          <t>58,62; 70,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,38; 61,94</t>
+          <t>50,01; 61,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,18; 70,16</t>
+          <t>56,15; 70,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,64; 45,65</t>
+          <t>32,62; 45,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,78; 58,68</t>
+          <t>45,78; 58,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,31; 53,9</t>
+          <t>41,35; 53,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,3; 53,29</t>
+          <t>43,34; 53,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,76; 52,37</t>
+          <t>43,98; 52,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,6; 63,44</t>
+          <t>54,56; 63,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,18; 56,21</t>
+          <t>47,54; 56,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,82; 60,57</t>
+          <t>51,5; 60,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,06; 55,45</t>
+          <t>46,77; 55,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,77; 59,16</t>
+          <t>50,02; 59,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,66; 65,15</t>
+          <t>55,98; 65,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,44; 71,79</t>
+          <t>60,03; 71,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,54; 53,13</t>
+          <t>44,29; 53,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,01; 63,58</t>
+          <t>54,61; 63,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,1; 60,48</t>
+          <t>51,59; 61,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,62; 54,75</t>
+          <t>46,78; 54,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,83; 53,2</t>
+          <t>46,65; 53,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,81; 60,17</t>
+          <t>53,47; 59,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,37; 61,38</t>
+          <t>55,07; 61,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,59; 61,95</t>
+          <t>54,95; 61,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,7; 60,46</t>
+          <t>49,07; 60,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,68; 77,29</t>
+          <t>66,66; 76,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,91; 67,56</t>
+          <t>57,51; 67,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,13; 71,2</t>
+          <t>59,75; 71,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,69; 57,61</t>
+          <t>46,82; 57,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,02; 59,47</t>
+          <t>48,3; 59,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,1; 59,06</t>
+          <t>48,22; 59,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,6; 62,99</t>
+          <t>53,14; 63,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,16; 57,29</t>
+          <t>49,73; 57,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,91; 66,41</t>
+          <t>58,94; 66,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,28; 61,7</t>
+          <t>54,47; 61,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,05; 65,5</t>
+          <t>58,1; 65,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,96; 71,59</t>
+          <t>61,72; 71,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,81; 75,01</t>
+          <t>64,47; 74,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,73; 65,35</t>
+          <t>54,8; 65,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,34; 72,98</t>
+          <t>59,34; 72,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,78; 53,68</t>
+          <t>43,66; 53,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,24; 60,03</t>
+          <t>49,19; 59,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,62; 56,93</t>
+          <t>45,77; 57,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,19; 77,9</t>
+          <t>47,22; 76,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,09; 61,12</t>
+          <t>53,89; 60,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,04; 66,0</t>
+          <t>58,64; 65,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,02; 59,76</t>
+          <t>52,01; 59,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>55,07; 72,9</t>
+          <t>55,05; 72,35</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,47; 71,27</t>
+          <t>57,72; 70,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,87; 69,31</t>
+          <t>55,8; 69,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,85; 65,1</t>
+          <t>52,23; 66,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,6; 60,73</t>
+          <t>47,63; 60,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,88; 58,77</t>
+          <t>44,03; 58,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,27; 54,39</t>
+          <t>41,35; 55,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>61,09; 73,25</t>
+          <t>61,69; 73,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,35; 59,28</t>
+          <t>49,61; 59,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,17; 62,86</t>
+          <t>53,08; 63,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,34; 60,5</t>
+          <t>50,03; 60,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,74; 67,91</t>
+          <t>58,41; 67,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,53; 58,24</t>
+          <t>50,34; 58,15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,92; 66,64</t>
+          <t>55,49; 66,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,99; 80,44</t>
+          <t>70,13; 80,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,75; 68,16</t>
+          <t>55,97; 67,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,03; 74,39</t>
+          <t>63,47; 74,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,52; 57,81</t>
+          <t>45,02; 57,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,62; 65,93</t>
+          <t>53,59; 66,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,49; 57,54</t>
+          <t>44,7; 56,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,39; 52,4</t>
+          <t>41,96; 51,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,02; 60,48</t>
+          <t>52,51; 60,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,7; 71,72</t>
+          <t>63,85; 71,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>52,0; 60,88</t>
+          <t>52,31; 60,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>54,76; 62,3</t>
+          <t>54,84; 61,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>56,32; 64,47</t>
+          <t>56,63; 64,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61,53; 69,41</t>
+          <t>61,57; 69,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>54,04; 62,39</t>
+          <t>53,87; 62,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53,93; 63,79</t>
+          <t>53,59; 63,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,52; 52,04</t>
+          <t>44,13; 52,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,15; 59,24</t>
+          <t>51,89; 59,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,24; 46,21</t>
+          <t>38,31; 46,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>46,1; 82,2</t>
+          <t>45,69; 79,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,19; 57,13</t>
+          <t>51,35; 57,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>57,78; 63,32</t>
+          <t>57,92; 63,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>46,8; 52,82</t>
+          <t>46,86; 52,82</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,29; 74,78</t>
+          <t>51,91; 73,36</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>56,73; 63,73</t>
+          <t>56,65; 64,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>61,07; 68,44</t>
+          <t>61,42; 68,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,36; 67,48</t>
+          <t>60,31; 67,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>56,68; 85,21</t>
+          <t>56,85; 86,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>39,51; 46,82</t>
+          <t>39,18; 47,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,5; 53,57</t>
+          <t>46,47; 53,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,8; 59,07</t>
+          <t>52,24; 59,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>52,0; 58,1</t>
+          <t>51,56; 58,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49,05; 54,37</t>
+          <t>48,83; 54,13</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>54,45; 59,71</t>
+          <t>54,58; 59,91</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>57,05; 62,4</t>
+          <t>57,21; 62,35</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>55,7; 77,8</t>
+          <t>55,77; 78,13</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>57,64; 61,08</t>
+          <t>57,66; 61,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,75; 67,17</t>
+          <t>63,66; 67,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>58,94; 62,47</t>
+          <t>59,13; 62,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>61,6; 74,65</t>
+          <t>61,42; 73,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,59; 48,95</t>
+          <t>45,43; 49,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>52,6; 56,17</t>
+          <t>52,57; 56,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>50,49; 53,87</t>
+          <t>50,56; 54,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>51,48; 63,44</t>
+          <t>51,31; 63,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,57</t>
+          <t>51,82; 54,35</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>58,52; 61,0</t>
+          <t>58,58; 61,05</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>55,19; 57,62</t>
+          <t>55,26; 57,7</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>57,15; 66,02</t>
+          <t>57,11; 65,2</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>154569</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>185496</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>160842</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>198421</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>99914</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>141112</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>127780</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>139187</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>254483</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>326608</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>288622</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>337608</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>139799; 171387</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>167309; 201305</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>142958; 177215</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>174879; 219790</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>84692; 118578</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>122754; 158073</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>110642; 144462</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>124598; 152907</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>232249; 279803</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>302024; 349524</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>263088; 314576</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>308445; 360823</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>249100</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>269938</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>301535</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>337805</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>239656</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>293026</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>279856</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>250802</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>488755</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>562964</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>581391</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>588608</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>228471; 270588</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>248222; 293291</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>277549; 322801</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>308062; 365091</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>217331; 261592</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>270052; 314845</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>257912; 305065</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>231492; 272090</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>456795; 522278</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>529813; 593344</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>548411; 612932</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>553922; 622323</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>175814</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>233239</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>196904</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>203841</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>174282</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>182600</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>175643</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>195421</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>350096</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>415839</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>372547</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>399262</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>156461; 193447</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>215393; 248407</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>181238; 211849</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>185127; 221843</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>156485; 192399</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>163762; 201295</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>157641; 193422</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>178780; 212356</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>324782; 375182</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>390282; 440113</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>349749; 397393</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>375437; 423811</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>238548</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>251859</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>213229</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>189472</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>179758</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>191564</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>173354</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>228342</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>418307</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>443424</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>386582</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>417814</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>220431; 255929</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>232071; 269655</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>194608; 231350</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>169713; 207943</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>161771; 197945</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>172567; 210278</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>154113; 193401</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>187006; 304455</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>392142; 442508</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>416780; 467821</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>359824; 411384</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>375443; 493415</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>130404</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>132624</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>122195</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>95869</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>105331</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>99501</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>145778</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>112311</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>235736</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>232125</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>267974</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>208180</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>115998; 142487</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>117995; 147351</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>107909; 137096</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>84808; 106871</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>89145; 118542</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>85933; 115906</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>133578; 159601</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>102546; 123158</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>214143; 255916</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>209760; 252299</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>247143; 285153</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>193680; 223738</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>164296</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>206557</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>162918</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>185300</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>141681</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>168177</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>138279</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>117507</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>305977</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>374734</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>301196</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>302806</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>149142; 179940</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>192149; 219844</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>147275; 177048</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>169900; 198622</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>123859; 157285</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>148953; 183953</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>120350; 153002</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>104611; 129539</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>285561; 328801</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>352405; 397153</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>278487; 324301</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>283492; 320259</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>372389</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>433616</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>356840</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>362703</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>303887</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>384359</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>271259</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>498109</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>676277</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>817975</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>628099</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>860811</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>347734; 396711</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>407433; 458358</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>330590; 381293</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>329143; 392307</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>280323; 330374</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>357734; 412413</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>246812; 300738</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>378067; 657749</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>641443; 712525</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>782568; 856117</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>589504; 664471</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>748328; 1057652</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>439424</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>484295</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>473265</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>634673</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>330533</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>390870</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>435273</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>387339</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>769956</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>875165</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>908538</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1022012</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>411973; 467615</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>459644; 512901</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>445426; 501151</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>521850; 793988</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>299763; 361329</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>362407; 418870</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>408094; 464013</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>361963; 408521</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>728703; 807873</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>834117; 915601</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>869486; 947480</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>903368; 1265604</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2173</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2870</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3444</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>5043</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1924545</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2197624</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1987728</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2208083</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1575042</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1851209</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1747221</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1929019</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>3499587</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4048833</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>3734948</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>4137102</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1870667; 1980387</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2139359; 2254473</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1935748; 2047170</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2087287; 2493642</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1514167; 1636648</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1791319; 1908600</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1690039; 1806197</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1795803; 2223087</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3408281; 3574539</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>3964416; 4131460</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3656367; 3817441</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3939613; 4497479</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>